--- a/po_analysis_by_asin/B0BWSCJDYD_po_data.xlsx
+++ b/po_analysis_by_asin/B0BWSCJDYD_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,25 +452,153 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>20</v>
       </c>
     </row>
@@ -485,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,17 +635,89 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B12" t="n">
         <v>30</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BWSCJDYD_po_data.xlsx
+++ b/po_analysis_by_asin/B0BWSCJDYD_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,22 +586,6 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -613,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,14 +697,6 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0BWSCJDYD_po_data.xlsx
+++ b/po_analysis_by_asin/B0BWSCJDYD_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -613,7 +614,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -695,6 +696,397 @@
       </c>
       <c r="B11" t="n">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-20.10947146783871</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.61307038265234</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.55209664676959</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.9325484937459</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-18.76160410845884</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.44149245985227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-15.20860767181887</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.56873805666796</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-9.575330985463514</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.32519711278147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-7.039001806551972</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.10202237456464</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.928875851799248</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40.89751821354012</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.067313138267084</v>
+      </c>
+      <c r="D9" t="n">
+        <v>44.44084797719987</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.033260307640267</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45.5504523867182</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.298747434139909</v>
+      </c>
+      <c r="D11" t="n">
+        <v>46.73827354072021</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>24</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.05187450799071379</v>
+      </c>
+      <c r="D12" t="n">
+        <v>46.60675316556989</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.648637703132565</v>
+      </c>
+      <c r="D13" t="n">
+        <v>49.67162354932829</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.655854516129317</v>
+      </c>
+      <c r="D14" t="n">
+        <v>49.68346049549076</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>29</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4.367284269187082</v>
+      </c>
+      <c r="D15" t="n">
+        <v>52.50302585940204</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.387822516200891</v>
+      </c>
+      <c r="D16" t="n">
+        <v>52.61921409755822</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>31</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.224291144019086</v>
+      </c>
+      <c r="D17" t="n">
+        <v>52.92711562619633</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>12.01021168847766</v>
+      </c>
+      <c r="D18" t="n">
+        <v>57.35017918050308</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11.75649677090272</v>
+      </c>
+      <c r="D19" t="n">
+        <v>58.1222728051897</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>36</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.08809307395518</v>
+      </c>
+      <c r="D20" t="n">
+        <v>59.85553999708385</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>37</v>
+      </c>
+      <c r="C21" t="n">
+        <v>13.02094557907382</v>
+      </c>
+      <c r="D21" t="n">
+        <v>60.49851589952172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>38</v>
+      </c>
+      <c r="C22" t="n">
+        <v>15.00360142788095</v>
+      </c>
+      <c r="D22" t="n">
+        <v>61.30964935920331</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>39</v>
+      </c>
+      <c r="C23" t="n">
+        <v>16.70515422370833</v>
+      </c>
+      <c r="D23" t="n">
+        <v>60.81799026826772</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>40</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15.3170326317262</v>
+      </c>
+      <c r="D24" t="n">
+        <v>62.07495365154407</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>40</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18.10041638239713</v>
+      </c>
+      <c r="D25" t="n">
+        <v>62.30061156994492</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>41</v>
+      </c>
+      <c r="C26" t="n">
+        <v>19.25736826542148</v>
+      </c>
+      <c r="D26" t="n">
+        <v>63.21142916179949</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BWSCJDYD_po_data.xlsx
+++ b/po_analysis_by_asin/B0BWSCJDYD_po_data.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,16 +728,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,12 +736,6 @@
       <c r="B2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>-20.10947146783871</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.61307038265234</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -760,12 +744,6 @@
       <c r="B3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>-19.55209664676959</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.9325484937459</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -774,12 +752,6 @@
       <c r="B4" t="n">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
-        <v>-18.76160410845884</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.44149245985227</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -788,12 +760,6 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
-      <c r="C5" t="n">
-        <v>-15.20860767181887</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28.56873805666796</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -802,12 +768,6 @@
       <c r="B6" t="n">
         <v>13</v>
       </c>
-      <c r="C6" t="n">
-        <v>-9.575330985463514</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35.32519711278147</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -816,12 +776,6 @@
       <c r="B7" t="n">
         <v>16</v>
       </c>
-      <c r="C7" t="n">
-        <v>-7.039001806551972</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38.10202237456464</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,12 +784,6 @@
       <c r="B8" t="n">
         <v>17</v>
       </c>
-      <c r="C8" t="n">
-        <v>-5.928875851799248</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40.89751821354012</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -844,12 +792,6 @@
       <c r="B9" t="n">
         <v>22</v>
       </c>
-      <c r="C9" t="n">
-        <v>-1.067313138267084</v>
-      </c>
-      <c r="D9" t="n">
-        <v>44.44084797719987</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -858,12 +800,6 @@
       <c r="B10" t="n">
         <v>22</v>
       </c>
-      <c r="C10" t="n">
-        <v>-2.033260307640267</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45.5504523867182</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -872,12 +808,6 @@
       <c r="B11" t="n">
         <v>23</v>
       </c>
-      <c r="C11" t="n">
-        <v>1.298747434139909</v>
-      </c>
-      <c r="D11" t="n">
-        <v>46.73827354072021</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -886,12 +816,6 @@
       <c r="B12" t="n">
         <v>24</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.05187450799071379</v>
-      </c>
-      <c r="D12" t="n">
-        <v>46.60675316556989</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -900,12 +824,6 @@
       <c r="B13" t="n">
         <v>26</v>
       </c>
-      <c r="C13" t="n">
-        <v>3.648637703132565</v>
-      </c>
-      <c r="D13" t="n">
-        <v>49.67162354932829</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -914,12 +832,6 @@
       <c r="B14" t="n">
         <v>28</v>
       </c>
-      <c r="C14" t="n">
-        <v>5.655854516129317</v>
-      </c>
-      <c r="D14" t="n">
-        <v>49.68346049549076</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -928,12 +840,6 @@
       <c r="B15" t="n">
         <v>29</v>
       </c>
-      <c r="C15" t="n">
-        <v>4.367284269187082</v>
-      </c>
-      <c r="D15" t="n">
-        <v>52.50302585940204</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -942,12 +848,6 @@
       <c r="B16" t="n">
         <v>30</v>
       </c>
-      <c r="C16" t="n">
-        <v>7.387822516200891</v>
-      </c>
-      <c r="D16" t="n">
-        <v>52.61921409755822</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -956,12 +856,6 @@
       <c r="B17" t="n">
         <v>31</v>
       </c>
-      <c r="C17" t="n">
-        <v>7.224291144019086</v>
-      </c>
-      <c r="D17" t="n">
-        <v>52.92711562619633</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -970,12 +864,6 @@
       <c r="B18" t="n">
         <v>35</v>
       </c>
-      <c r="C18" t="n">
-        <v>12.01021168847766</v>
-      </c>
-      <c r="D18" t="n">
-        <v>57.35017918050308</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -984,12 +872,6 @@
       <c r="B19" t="n">
         <v>35</v>
       </c>
-      <c r="C19" t="n">
-        <v>11.75649677090272</v>
-      </c>
-      <c r="D19" t="n">
-        <v>58.1222728051897</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -998,12 +880,6 @@
       <c r="B20" t="n">
         <v>36</v>
       </c>
-      <c r="C20" t="n">
-        <v>13.08809307395518</v>
-      </c>
-      <c r="D20" t="n">
-        <v>59.85553999708385</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1012,12 +888,6 @@
       <c r="B21" t="n">
         <v>37</v>
       </c>
-      <c r="C21" t="n">
-        <v>13.02094557907382</v>
-      </c>
-      <c r="D21" t="n">
-        <v>60.49851589952172</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1026,12 +896,6 @@
       <c r="B22" t="n">
         <v>38</v>
       </c>
-      <c r="C22" t="n">
-        <v>15.00360142788095</v>
-      </c>
-      <c r="D22" t="n">
-        <v>61.30964935920331</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1040,12 +904,6 @@
       <c r="B23" t="n">
         <v>39</v>
       </c>
-      <c r="C23" t="n">
-        <v>16.70515422370833</v>
-      </c>
-      <c r="D23" t="n">
-        <v>60.81799026826772</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1054,12 +912,6 @@
       <c r="B24" t="n">
         <v>40</v>
       </c>
-      <c r="C24" t="n">
-        <v>15.3170326317262</v>
-      </c>
-      <c r="D24" t="n">
-        <v>62.07495365154407</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1068,12 +920,6 @@
       <c r="B25" t="n">
         <v>40</v>
       </c>
-      <c r="C25" t="n">
-        <v>18.10041638239713</v>
-      </c>
-      <c r="D25" t="n">
-        <v>62.30061156994492</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1081,12 +927,6 @@
       </c>
       <c r="B26" t="n">
         <v>41</v>
-      </c>
-      <c r="C26" t="n">
-        <v>19.25736826542148</v>
-      </c>
-      <c r="D26" t="n">
-        <v>63.21142916179949</v>
       </c>
     </row>
   </sheetData>
